--- a/Test Cases1.xlsx
+++ b/Test Cases1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ndou\Documents\Sisekelo\Zensar_sisekelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D016CE9-E7C1-46FC-AF57-7EEA0B5C6C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49E405-BF0C-4542-8296-1EF2BA3886F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E30A13B-140F-4A90-9DA6-C6F2F3A9EF49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -186,10 +186,13 @@
     <t>James12@gmail.com</t>
   </si>
   <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7BAD9-C955-4767-923B-5B78345C5EC5}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
     <col min="8" max="8" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +602,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -655,10 +664,10 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -684,10 +693,10 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,10 +722,10 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -742,10 +751,10 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -769,10 +778,10 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -792,10 +801,10 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -817,10 +826,10 @@
         <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -875,7 +884,7 @@
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases1.xlsx
+++ b/Test Cases1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>

--- a/Test Cases1.xlsx
+++ b/Test Cases1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ndou\Documents\Sisekelo\Zensar_sisekelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e85bff1b2d48633/Documents/Sisekelo/Zensar_sisekelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49E405-BF0C-4542-8296-1EF2BA3886F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FB49E405-BF0C-4542-8296-1EF2BA3886F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37A9AF0-E088-4393-BD35-5AD3F3D684B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E30A13B-140F-4A90-9DA6-C6F2F3A9EF49}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Title</t>
   </si>
@@ -153,53 +153,25 @@
     <t>Patricia</t>
   </si>
   <si>
-    <t>Thoni</t>
-  </si>
-  <si>
-    <t>thoni@gmail.com</t>
-  </si>
-  <si>
     <t>patricia@12</t>
   </si>
   <si>
-    <t>Thonin@12</t>
-  </si>
-  <si>
     <t>0814243193</t>
   </si>
   <si>
     <t>0722953777</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>123@James</t>
-  </si>
-  <si>
-    <t>0812341111</t>
-  </si>
-  <si>
-    <t>James12@gmail.com</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,19 +534,19 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -603,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -634,9 +606,6 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -661,10 +630,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -690,10 +656,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -719,10 +682,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -748,10 +708,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -777,9 +734,6 @@
         <v>34</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -798,10 +752,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -817,75 +768,34 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -913,16 +823,8 @@
     <hyperlink ref="G8" r:id="rId22" xr:uid="{951134AE-7C71-48A1-B58F-D40ABF3D147C}"/>
     <hyperlink ref="F9" r:id="rId23" xr:uid="{BBB47790-48F6-4CA2-A8D4-96ABE5314F0C}"/>
     <hyperlink ref="G9" r:id="rId24" xr:uid="{E9593D13-916D-44A8-A007-88F70786EFA4}"/>
-    <hyperlink ref="D10" r:id="rId25" xr:uid="{E2051470-A52C-4194-A3CB-EC4588104C76}"/>
-    <hyperlink ref="E10" r:id="rId26" xr:uid="{FA165FCC-8407-47CB-8334-37F975329CC9}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{5D0305AC-4A5F-4AA6-811E-8F3209BCF74C}"/>
-    <hyperlink ref="G10" r:id="rId28" xr:uid="{C3D7E8CC-C4F1-423D-A01A-FC5380DB4086}"/>
-    <hyperlink ref="D11" r:id="rId29" xr:uid="{45EE8F7E-4B97-4CBC-8955-46C776B82374}"/>
-    <hyperlink ref="E11" r:id="rId30" xr:uid="{2FC999BE-A1EE-476C-A161-56377480014F}"/>
-    <hyperlink ref="F11" r:id="rId31" xr:uid="{0885EBEA-9F22-4C78-93FF-1F5053B2CB4E}"/>
-    <hyperlink ref="G11" r:id="rId32" xr:uid="{FE5FBC92-01C3-4705-B2FD-C66F634C8EF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>